--- a/modelo-fisico.xlsx
+++ b/modelo-fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lutpi\Desktop\Luiz\Development\db-modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA6359F-0E55-43DF-A5C0-4C66855F5359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A718F-A4A5-4750-B828-AB3559E7CF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="4752" windowWidth="23256" windowHeight="12456" xr2:uid="{73DD0E60-23F1-4513-9BFB-C134AD9801C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73DD0E60-23F1-4513-9BFB-C134AD9801C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>Manutenção mecânica</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Supervisor de Produção</t>
+  </si>
+  <si>
+    <t>Salário</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -279,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -500,11 +503,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,15 +626,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -588,15 +658,46 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,13 +775,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1028,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0CE36C-69C0-4EA0-BF2B-29003420EDB8}">
-  <dimension ref="H2:U20"/>
+  <dimension ref="H2:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,81 +1144,85 @@
     <col min="13" max="13" width="45.5703125" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.42578125" customWidth="1"/>
+    <col min="16" max="17" width="23" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
+    <row r="2" spans="8:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="8:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="L3" s="18" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="L3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="R3" s="18" t="s">
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
+      <c r="S3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="20"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="39"/>
     </row>
-    <row r="4" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="22" t="s">
+    <row r="4" spans="8:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="S4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="T4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="U4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="V4" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H5" s="5">
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="31">
         <v>2</v>
       </c>
       <c r="L5" s="10">
@@ -1126,36 +1231,39 @@
       <c r="M5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="34">
         <v>28290</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="48">
+        <v>13994.5</v>
+      </c>
+      <c r="Q5" s="18">
         <v>1</v>
       </c>
-      <c r="R5" s="27">
+      <c r="S5" s="24">
         <v>1</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="T5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="U5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="U5" s="28" t="s">
+      <c r="V5" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="32">
         <v>3</v>
       </c>
       <c r="L6" s="12">
@@ -1164,36 +1272,39 @@
       <c r="M6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="35">
         <v>32567</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="40">
+        <v>5280</v>
+      </c>
+      <c r="Q6" s="22">
         <v>2</v>
       </c>
-      <c r="R6" s="29">
+      <c r="S6" s="26">
         <v>2</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="30" t="s">
+      <c r="V6" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="32">
         <v>5</v>
       </c>
       <c r="L7" s="12">
@@ -1202,36 +1313,39 @@
       <c r="M7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="35">
         <v>33119</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="40">
+        <v>7920</v>
+      </c>
+      <c r="Q7" s="22">
         <v>3</v>
       </c>
-      <c r="R7" s="29">
+      <c r="S7" s="26">
         <v>3</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="U7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="30" t="s">
+      <c r="V7" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="32">
         <v>7</v>
       </c>
       <c r="L8" s="12">
@@ -1240,36 +1354,39 @@
       <c r="M8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="35">
         <v>31908</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="40">
+        <v>2999</v>
+      </c>
+      <c r="Q8" s="22">
         <v>10</v>
       </c>
-      <c r="R8" s="29">
+      <c r="S8" s="26">
         <v>4</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="U8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="U8" s="30" t="s">
+      <c r="V8" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="3">
         <v>5</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="33">
         <v>1</v>
       </c>
       <c r="L9" s="12">
@@ -1278,29 +1395,32 @@
       <c r="M9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="35">
         <v>34329</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="40">
+        <v>7800</v>
+      </c>
+      <c r="Q9" s="22">
         <v>11</v>
       </c>
-      <c r="R9" s="29">
+      <c r="S9" s="26">
         <v>5</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="30" t="s">
+      <c r="V9" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1310,29 +1430,32 @@
       <c r="M10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="35">
         <v>36119</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="40">
+        <v>2999</v>
+      </c>
+      <c r="Q10" s="22">
         <v>9</v>
       </c>
-      <c r="R10" s="29">
+      <c r="S10" s="26">
         <v>6</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="T10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="U10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="31" t="s">
+      <c r="V10" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1342,29 +1465,32 @@
       <c r="M11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="35">
         <v>33822</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="41">
+        <v>3200</v>
+      </c>
+      <c r="Q11" s="22">
         <v>4</v>
       </c>
-      <c r="R11" s="29">
+      <c r="S11" s="26">
         <v>7</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="T11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="U11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="U11" s="30" t="s">
+      <c r="V11" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1374,29 +1500,32 @@
       <c r="M12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="35">
         <v>31121</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="40">
+        <v>2150</v>
+      </c>
+      <c r="Q12" s="22">
         <v>10</v>
       </c>
-      <c r="R12" s="29">
+      <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="T12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="U12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="U12" s="30" t="s">
+      <c r="V12" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1406,29 +1535,32 @@
       <c r="M13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="35">
         <v>35361</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="40">
+        <v>6500</v>
+      </c>
+      <c r="Q13" s="22">
         <v>6</v>
       </c>
-      <c r="R13" s="29">
+      <c r="S13" s="26">
         <v>9</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="T13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="U13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="U13" s="30" t="s">
+      <c r="V13" s="27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1438,29 +1570,32 @@
       <c r="M14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="35">
         <v>31960</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="40">
+        <v>2150</v>
+      </c>
+      <c r="Q14" s="22">
         <v>5</v>
       </c>
-      <c r="R14" s="29">
+      <c r="S14" s="26">
         <v>10</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="T14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="U14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="U14" s="30" t="s">
+      <c r="V14" s="27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1470,29 +1605,32 @@
       <c r="M15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="35">
         <v>33864</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="40">
+        <v>1596</v>
+      </c>
+      <c r="Q15" s="22">
         <v>7</v>
       </c>
-      <c r="R15" s="32">
+      <c r="S15" s="29">
         <v>11</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="T15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="U15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="33" t="s">
+      <c r="V15" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1502,17 +1640,20 @@
       <c r="M16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="35">
         <v>31507</v>
       </c>
       <c r="O16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="40">
+        <v>2300</v>
+      </c>
+      <c r="Q16" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1522,17 +1663,20 @@
       <c r="M17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="35">
         <v>32895</v>
       </c>
       <c r="O17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="40">
+        <v>3300</v>
+      </c>
+      <c r="Q17" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1542,17 +1686,20 @@
       <c r="M18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="35">
         <v>33916</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="40">
+        <v>2999</v>
+      </c>
+      <c r="Q18" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1562,24 +1709,27 @@
       <c r="M19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="36">
         <v>32343</v>
       </c>
       <c r="O19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="49">
+        <v>2500</v>
+      </c>
+      <c r="Q19" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
       <c r="L20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="L3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
